--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium With Java\GitStuff\imf.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\My-created-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE165FFA-6967-4669-AD50-2C6E78449B40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177264ED-FADD-4DC3-B8BC-F2A67B1F4460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>TestData8</t>
   </si>
   <si>
-    <t>imfpagetitletest</t>
-  </si>
-  <si>
     <t>International Monetary Fund - Homepage</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>imfpagetitletest_excel</t>
   </si>
 </sst>
 </file>
@@ -400,12 +400,12 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -467,25 +467,25 @@
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\My-created-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177264ED-FADD-4DC3-B8BC-F2A67B1F4460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67505E2-A7B4-4A72-B6A0-7B36B2316F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TestName</t>
   </si>
@@ -75,16 +75,36 @@
   </si>
   <si>
     <t>imfpagetitletest_excel</t>
+  </si>
+  <si>
+    <t>priyanshis83@lti.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>February 2020</t>
+  </si>
+  <si>
+    <t>salesforce_lightening_app_Test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,18 +127,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,12 +428,12 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -496,10 +524,18 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -569,6 +605,10 @@
       <c r="F9" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4C3CF110-BDC0-4401-963D-DA18FB41A51D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5AA1EAB5-7825-430A-8FD6-E6A6CF237777}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
